--- a/DZ2 new.xlsx
+++ b/DZ2 new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29505338\Documents\git\archpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29505338\Documents\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>X</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>1 ⊕ 0 ⊕ 0 ⊕ 1 ⊕ 0 ⊕ 1 ⊕ 1 ⊕ a₇ = 1 ⇒ 1 ⊕ a₇ = 1 ⇒ a₇ = 0</t>
+  </si>
+  <si>
+    <t>nXnYnZ or nXYnZ or nXYZ or XnYnZ or XnYZ or XYnZ or XYZ</t>
+  </si>
+  <si>
+    <t>СДНФ b</t>
   </si>
 </sst>
 </file>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +734,7 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="46.140625" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1053,6 +1059,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
